--- a/02_Enhanced Data/sellers.xlsx
+++ b/02_Enhanced Data/sellers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\marwa\marwa\ITI\Grad. Project\02_Enhanced Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14ED1E-DF8F-43A0-B46B-61E573546F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E66A1AB-C5DF-4A7A-8CCA-B53177C095E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2976" windowWidth="13824" windowHeight="7836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-2895" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sellers_table" sheetId="1" r:id="rId1"/>
